--- a/Datos/Anuario2024/140103_ClubsDeportivosFederados.xlsx
+++ b/Datos/Anuario2024/140103_ClubsDeportivosFederados.xlsx
@@ -1,133 +1,416 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr codeName="ThisWorkbook"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Tomas\AplAnu2024\System\Xls_Cast\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="20400" windowHeight="8745" tabRatio="827" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="8745" tabRatio="827"/>
   </bookViews>
   <sheets>
-    <sheet name="0" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="0" sheetId="34" r:id="rId1"/>
+    <sheet name="1" sheetId="5" r:id="rId2"/>
+    <sheet name="2" sheetId="33" r:id="rId3"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId4"/>
     <externalReference r:id="rId5"/>
   </externalReferences>
   <definedNames>
+    <definedName name="_R1_3" localSheetId="0">#REF!</definedName>
     <definedName name="_R1_3">#REF!</definedName>
+    <definedName name="_R1_4" localSheetId="0">#REF!</definedName>
     <definedName name="_R1_4">#REF!</definedName>
+    <definedName name="_R2_1" localSheetId="0">#REF!</definedName>
     <definedName name="_R2_1">#REF!</definedName>
+    <definedName name="_R2_2" localSheetId="0">#REF!</definedName>
     <definedName name="_R2_2">#REF!</definedName>
+    <definedName name="_R2_3" localSheetId="0">#REF!</definedName>
     <definedName name="_R2_3">#REF!</definedName>
     <definedName name="_R2_4">'[1]4.5'!$A$1:$H$6</definedName>
     <definedName name="_R2_5">'[1]4.6'!$A$1:$C$6</definedName>
+    <definedName name="_R3_3" localSheetId="0">#REF!</definedName>
     <definedName name="_R3_3">#REF!</definedName>
     <definedName name="_R3_5">'[2]9.5'!$A$1:$H$7</definedName>
     <definedName name="_R3_6">'[2]9.6'!$A$1:$F$7</definedName>
+    <definedName name="_R3_7" localSheetId="0">#REF!</definedName>
     <definedName name="_R3_7">#REF!</definedName>
     <definedName name="_R3_8">'[2]9.7'!$A$1:$F$7</definedName>
     <definedName name="_R3_9">'[2]9.8'!$A$1:$F$18</definedName>
+    <definedName name="_R4_3" localSheetId="0">#REF!</definedName>
     <definedName name="_R4_3">#REF!</definedName>
+    <definedName name="_R4_4" localSheetId="0">#REF!</definedName>
     <definedName name="_R4_4">#REF!</definedName>
+    <definedName name="_R4_7" localSheetId="0">#REF!</definedName>
     <definedName name="_R4_7">#REF!</definedName>
+    <definedName name="_R5_8" localSheetId="0">#REF!</definedName>
     <definedName name="_R5_8">#REF!</definedName>
+    <definedName name="_R8_1" localSheetId="0">#REF!</definedName>
     <definedName name="_R8_1">#REF!</definedName>
-    <definedName name="_R1_3" localSheetId="0">#REF!</definedName>
-    <definedName name="_R1_4" localSheetId="0">#REF!</definedName>
-    <definedName name="_R2_1" localSheetId="0">#REF!</definedName>
-    <definedName name="_R2_2" localSheetId="0">#REF!</definedName>
-    <definedName name="_R2_3" localSheetId="0">#REF!</definedName>
-    <definedName name="_R3_3" localSheetId="0">#REF!</definedName>
-    <definedName name="_R3_7" localSheetId="0">#REF!</definedName>
-    <definedName name="_R4_3" localSheetId="0">#REF!</definedName>
-    <definedName name="_R4_4" localSheetId="0">#REF!</definedName>
-    <definedName name="_R4_7" localSheetId="0">#REF!</definedName>
-    <definedName name="_R5_8" localSheetId="0">#REF!</definedName>
-    <definedName name="_R8_1" localSheetId="0">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="152511" fullCalcOnLoad="1"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="91">
+  <si>
+    <t>València</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.  Ciutat Vella</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.  Extramurs</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4.  Campanar</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 8.  Patraix</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9.  Jesús</t>
+  </si>
+  <si>
+    <t>10.  Quatre Carreres</t>
+  </si>
+  <si>
+    <t>11.  Poblats Marítims</t>
+  </si>
+  <si>
+    <t>12.  Camins al Grau</t>
+  </si>
+  <si>
+    <t>13.  Algirós</t>
+  </si>
+  <si>
+    <t>14.  Benimaclet</t>
+  </si>
+  <si>
+    <t>15.  Rascanya</t>
+  </si>
+  <si>
+    <t>16.  Benicalap</t>
+  </si>
+  <si>
+    <t>17.  Pobles del Nord</t>
+  </si>
+  <si>
+    <t>18.  Pobles de l'Oest</t>
+  </si>
+  <si>
+    <t>19.  Pobles del Sud</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Petanca</t>
+  </si>
+  <si>
+    <t>Golf</t>
+  </si>
+  <si>
+    <t>Pilota Valenciana</t>
+  </si>
+  <si>
+    <t>Billar</t>
+  </si>
+  <si>
+    <t>Hípica</t>
+  </si>
+  <si>
+    <t>Taekwondo</t>
+  </si>
+  <si>
+    <t>Karate</t>
+  </si>
+  <si>
+    <t>Esgrima</t>
+  </si>
+  <si>
+    <t>Vela</t>
+  </si>
+  <si>
+    <t>Voleibol</t>
+  </si>
+  <si>
+    <t>Judo</t>
+  </si>
+  <si>
+    <t>Tenis</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.  l'Eixample</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5.  la Saïdia</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6.  el Pla del Real</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7.  l'Olivereta</t>
+  </si>
+  <si>
+    <t>Atletismo</t>
+  </si>
+  <si>
+    <t>Bádminton</t>
+  </si>
+  <si>
+    <t>Baloncesto</t>
+  </si>
+  <si>
+    <t>Balonmano</t>
+  </si>
+  <si>
+    <t>Bolos</t>
+  </si>
+  <si>
+    <t>Boxeo</t>
+  </si>
+  <si>
+    <t>Ciclismo</t>
+  </si>
+  <si>
+    <t>Gimnasia</t>
+  </si>
+  <si>
+    <t>Halterofilia</t>
+  </si>
+  <si>
+    <t>Fútbol</t>
+  </si>
+  <si>
+    <t>Hockey</t>
+  </si>
+  <si>
+    <t>Lucha</t>
+  </si>
+  <si>
+    <t>Natación</t>
+  </si>
+  <si>
+    <t>Pádel</t>
+  </si>
+  <si>
+    <t>Patinaje</t>
+  </si>
+  <si>
+    <t>Rugby</t>
+  </si>
+  <si>
+    <t>Piragüismo</t>
+  </si>
+  <si>
+    <t>Remo</t>
+  </si>
+  <si>
+    <t>Otros</t>
+  </si>
+  <si>
+    <t>Automovilismo</t>
+  </si>
+  <si>
+    <t>Caza</t>
+  </si>
+  <si>
+    <t>Ajedrez</t>
+  </si>
+  <si>
+    <t>Espeleología</t>
+  </si>
+  <si>
+    <t>Motociclismo</t>
+  </si>
+  <si>
+    <t>Motonáutica</t>
+  </si>
+  <si>
+    <t>Tenis de Mesa</t>
+  </si>
+  <si>
+    <t>Total Clubs</t>
+  </si>
+  <si>
+    <t>Baile Deportivo</t>
+  </si>
+  <si>
+    <t>Waterpolo</t>
+  </si>
+  <si>
+    <t>Fútbol Sala</t>
+  </si>
+  <si>
+    <t>Pelota/Frontón</t>
+  </si>
+  <si>
+    <t>Actividades Subacuáticas</t>
+  </si>
+  <si>
+    <t>Colombofilia/Colombicultura</t>
+  </si>
+  <si>
+    <t>Deporte de Orientación</t>
+  </si>
+  <si>
+    <t>Deportes Adaptados</t>
+  </si>
+  <si>
+    <t>Deportes Aéreos</t>
+  </si>
+  <si>
+    <t>Deportes de Invierno</t>
+  </si>
+  <si>
+    <t>Kick-Boxing</t>
+  </si>
+  <si>
+    <t>Pesca Deportiva</t>
+  </si>
+  <si>
+    <t>Salvamento y Socorrismo</t>
+  </si>
+  <si>
+    <t>Tiro con Arco</t>
+  </si>
+  <si>
+    <t>Tiro Olímpico</t>
+  </si>
+  <si>
+    <t>Triatlón</t>
+  </si>
+  <si>
+    <t>Wu-Shu</t>
+  </si>
+  <si>
+    <t>Nota: En un club puede practicarse más de una actividad deportiva.</t>
+  </si>
+  <si>
+    <t>No hi consta</t>
+  </si>
+  <si>
+    <t>Fuente: Conselleria de Educación, Cultura y Deporte. Generalitat Valenciana.</t>
+  </si>
+  <si>
+    <t>Grappling</t>
+  </si>
+  <si>
+    <t>Lucha Libre olímpica</t>
+  </si>
+  <si>
+    <t>Montañismo y escalada</t>
+  </si>
+  <si>
+    <t>Sambo (Defensa personal)</t>
+  </si>
+  <si>
+    <t>Carreras por la montaña</t>
+  </si>
+  <si>
+    <t>Kitesurf/Windsurf</t>
+  </si>
+  <si>
+    <t>Lucha Grecorromana</t>
+  </si>
+  <si>
+    <t>CLUBS DEPORTIVOS FEDERADOS</t>
+  </si>
+  <si>
+    <t>Béisbol y Sóftbol</t>
+  </si>
+  <si>
+    <t>2. Clubs federados en la ciudad de València por distrito. 2023</t>
+  </si>
+  <si>
+    <t>1. Clubs federados en la ciudad de València según actividad deportiva. 2023</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="12">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
+      <sz val="10"/>
       <name val="Arial"/>
-      <sz val="10"/>
     </font>
     <font>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <sz val="10"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color indexed="8"/>
       <name val="MS Sans Serif"/>
       <family val="2"/>
-      <color indexed="8"/>
-      <sz val="10"/>
     </font>
     <font>
+      <sz val="10"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <sz val="10"/>
     </font>
     <font>
+      <i/>
+      <sz val="8"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <i val="1"/>
-      <sz val="8"/>
     </font>
     <font>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <sz val="10"/>
     </font>
     <font>
+      <b/>
+      <sz val="10"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <b val="1"/>
-      <sz val="10"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <color rgb="FF000000"/>
-      <sz val="10"/>
     </font>
     <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="0"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <b val="1"/>
-      <color theme="0"/>
-      <sz val="10"/>
     </font>
     <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFFEBFA"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <b val="1"/>
-      <color rgb="FFFFEBFA"/>
-      <sz val="10"/>
     </font>
     <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <b val="1"/>
-      <color rgb="FFFFFFFF"/>
-      <sz val="10"/>
     </font>
     <font>
+      <b/>
+      <sz val="12"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <b val="1"/>
-      <sz val="12"/>
     </font>
   </fonts>
   <fills count="6">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -183,72 +466,72 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="30">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="3" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="3" fontId="8" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="4">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="3" fontId="7" fillId="5" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="3">
+    <xf numFmtId="3" fontId="7" fillId="5" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="3">
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="3">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="4">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -257,6 +540,7 @@
     <cellStyle name="Normal_Hoja1" xfId="3"/>
     <cellStyle name="Normal_Instalacions según uso" xfId="4"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
@@ -325,13 +609,25 @@
       <rgbColor rgb="00333399"/>
       <rgbColor rgb="00333333"/>
     </indexedColors>
+    <mruColors>
+      <color rgb="FFC0C0C0"/>
+      <color rgb="FF008000"/>
+    </mruColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook r:id="rId1">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="1"/>
       <sheetName val="1.1"/>
@@ -572,8 +868,8 @@
 </file>
 
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook r:id="rId1">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="1"/>
       <sheetName val="1.1"/>
@@ -1451,1021 +1747,810 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja1">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:A10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col width="37.7109375" customWidth="1" style="14" min="1" max="1"/>
+    <col min="1" max="1" width="37.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1" s="14">
-      <c r="A1" s="29" t="inlineStr">
-        <is>
-          <t>CLUBS DEPORTIVOS FEDERADOS</t>
-        </is>
-      </c>
-    </row>
-    <row r="10" customFormat="1" s="1">
-      <c r="A10" s="2" t="n"/>
+    <row r="1" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="28" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="2"/>
     </row>
   </sheetData>
-  <pageMargins left="0.3937007874015748" right="0.3937007874015748" top="0.5905511811023622" bottom="0.5905511811023622" header="0" footer="0"/>
-  <pageSetup orientation="portrait" paperSize="9" horizontalDpi="300" verticalDpi="300"/>
+  <pageMargins left="0.39370078740157477" right="0.39370078740157477" top="0.59055118110236215" bottom="0.59055118110236215" header="0" footer="0"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
-    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9 Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9 Ajuntament de València</oddHeader>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
+    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9Ajuntament de València</oddHeader>
   </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja9">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:C69"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col width="33.5703125" customWidth="1" style="14" min="1" max="1"/>
-    <col width="8.7109375" customWidth="1" style="1" min="2" max="2"/>
+    <col min="1" max="1" width="33.5703125" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1" s="14">
-      <c r="A1" s="29" t="inlineStr">
-        <is>
-          <t>1. Clubs federados en la ciudad de València según actividad deportiva. 2023</t>
-        </is>
-      </c>
-      <c r="B1" s="7" t="n"/>
-    </row>
-    <row r="2">
-      <c r="A2" s="5" t="n"/>
-      <c r="B2" s="7" t="n"/>
-    </row>
-    <row r="3" ht="18.75" customHeight="1" s="14">
-      <c r="A3" s="16" t="n"/>
-      <c r="B3" s="17" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-    </row>
-    <row r="4" ht="15" customHeight="1" s="14">
-      <c r="A4" s="18" t="inlineStr">
-        <is>
-          <t>Total Clubs</t>
-        </is>
-      </c>
-      <c r="B4" s="15" t="n">
+    <row r="1" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="28" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1" s="7"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="3"/>
+      <c r="B2" s="7"/>
+    </row>
+    <row r="3" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="16"/>
+      <c r="B3" s="17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="B4" s="15">
         <v>1124</v>
       </c>
     </row>
-    <row r="5" ht="15" customHeight="1" s="14">
-      <c r="A5" s="11" t="inlineStr">
-        <is>
-          <t>Actividades Subacuáticas</t>
-        </is>
-      </c>
-      <c r="B5" s="9" t="n">
+    <row r="5" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="B5" s="9">
         <v>27</v>
       </c>
     </row>
-    <row r="6" ht="15" customHeight="1" s="14">
-      <c r="A6" s="13" t="inlineStr">
-        <is>
-          <t>Ajedrez</t>
-        </is>
-      </c>
-      <c r="B6" s="8" t="n">
+    <row r="6" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B6" s="8">
         <v>24</v>
       </c>
     </row>
-    <row r="7" ht="15" customHeight="1" s="14">
-      <c r="A7" s="11" t="inlineStr">
-        <is>
-          <t>Atletismo</t>
-        </is>
-      </c>
-      <c r="B7" s="9" t="n">
+    <row r="7" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="9">
         <v>42</v>
       </c>
     </row>
-    <row r="8" ht="15" customHeight="1" s="14">
-      <c r="A8" s="13" t="inlineStr">
-        <is>
-          <t>Automovilismo</t>
-        </is>
-      </c>
-      <c r="B8" s="8" t="n">
+    <row r="8" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="B8" s="8">
         <v>9</v>
       </c>
     </row>
-    <row r="9" ht="15" customHeight="1" s="14">
-      <c r="A9" s="11" t="inlineStr">
-        <is>
-          <t>Bádminton</t>
-        </is>
-      </c>
-      <c r="B9" s="9" t="n">
+    <row r="9" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" s="9">
         <v>5</v>
       </c>
     </row>
-    <row r="10" ht="15" customHeight="1" s="14">
-      <c r="A10" s="13" t="inlineStr">
-        <is>
-          <t>Baile Deportivo</t>
-        </is>
-      </c>
-      <c r="B10" s="8" t="n">
+    <row r="10" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="B10" s="8">
         <v>12</v>
       </c>
     </row>
-    <row r="11" ht="15" customHeight="1" s="14">
-      <c r="A11" s="11" t="inlineStr">
-        <is>
-          <t>Baloncesto</t>
-        </is>
-      </c>
-      <c r="B11" s="9" t="n">
+    <row r="11" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" s="9">
         <v>59</v>
       </c>
     </row>
-    <row r="12" ht="15" customHeight="1" s="14">
-      <c r="A12" s="13" t="inlineStr">
-        <is>
-          <t>Balonmano</t>
-        </is>
-      </c>
-      <c r="B12" s="8" t="n">
+    <row r="12" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" s="8">
         <v>28</v>
       </c>
     </row>
-    <row r="13" ht="15" customHeight="1" s="14">
-      <c r="A13" s="11" t="inlineStr">
-        <is>
-          <t>Béisbol y Sóftbol</t>
-        </is>
-      </c>
-      <c r="B13" s="9" t="n">
+    <row r="13" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="B13" s="9">
         <v>12</v>
       </c>
     </row>
-    <row r="14" ht="15" customHeight="1" s="14">
-      <c r="A14" s="13" t="inlineStr">
-        <is>
-          <t>Billar</t>
-        </is>
-      </c>
-      <c r="B14" s="8" t="n">
+    <row r="14" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="8">
         <v>8</v>
       </c>
     </row>
-    <row r="15" ht="15" customHeight="1" s="14">
-      <c r="A15" s="11" t="inlineStr">
-        <is>
-          <t>Bolos</t>
-        </is>
-      </c>
-      <c r="B15" s="9" t="n">
+    <row r="15" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" s="9">
         <v>11</v>
       </c>
     </row>
-    <row r="16" ht="15" customHeight="1" s="14">
-      <c r="A16" s="13" t="inlineStr">
-        <is>
-          <t>Boxeo</t>
-        </is>
-      </c>
-      <c r="B16" s="8" t="n">
+    <row r="16" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" s="8">
         <v>14</v>
       </c>
     </row>
-    <row r="17" ht="15" customHeight="1" s="14">
-      <c r="A17" s="11" t="inlineStr">
-        <is>
-          <t>Carreras por la montaña</t>
-        </is>
-      </c>
-      <c r="B17" s="9" t="n">
+    <row r="17" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="B17" s="9">
         <v>7</v>
       </c>
     </row>
-    <row r="18" ht="15" customHeight="1" s="14">
-      <c r="A18" s="13" t="inlineStr">
-        <is>
-          <t>Caza</t>
-        </is>
-      </c>
-      <c r="B18" s="8" t="n">
+    <row r="18" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="B18" s="8">
         <v>27</v>
       </c>
     </row>
-    <row r="19" ht="15" customHeight="1" s="14">
-      <c r="A19" s="11" t="inlineStr">
-        <is>
-          <t>Ciclismo</t>
-        </is>
-      </c>
-      <c r="B19" s="9" t="n">
+    <row r="19" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="B19" s="9">
         <v>78</v>
       </c>
     </row>
-    <row r="20" ht="15" customHeight="1" s="14">
-      <c r="A20" s="13" t="inlineStr">
-        <is>
-          <t>Colombofilia/Colombicultura</t>
-        </is>
-      </c>
-      <c r="B20" s="8" t="n">
+    <row r="20" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="B20" s="8">
         <v>24</v>
       </c>
     </row>
-    <row r="21" ht="15" customHeight="1" s="14">
-      <c r="A21" s="11" t="inlineStr">
-        <is>
-          <t>Deportes Adaptados</t>
-        </is>
-      </c>
-      <c r="B21" s="9" t="n">
+    <row r="21" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="B21" s="9">
         <v>28</v>
       </c>
     </row>
-    <row r="22" ht="15" customHeight="1" s="14">
-      <c r="A22" s="13" t="inlineStr">
-        <is>
-          <t>Deportes Aéreos</t>
-        </is>
-      </c>
-      <c r="B22" s="8" t="n">
+    <row r="22" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="B22" s="8">
         <v>18</v>
       </c>
     </row>
-    <row r="23" ht="15" customHeight="1" s="14">
-      <c r="A23" s="11" t="inlineStr">
-        <is>
-          <t>Deportes de Invierno</t>
-        </is>
-      </c>
-      <c r="B23" s="9" t="n">
+    <row r="23" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="B23" s="9">
         <v>22</v>
       </c>
     </row>
-    <row r="24" ht="15" customHeight="1" s="14">
-      <c r="A24" s="13" t="inlineStr">
-        <is>
-          <t>Deporte de Orientación</t>
-        </is>
-      </c>
-      <c r="B24" s="8" t="n">
+    <row r="24" spans="1:3" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="B24" s="8">
         <v>6</v>
       </c>
     </row>
-    <row r="25" ht="15" customHeight="1" s="14">
-      <c r="A25" s="11" t="inlineStr">
-        <is>
-          <t>Esgrima</t>
-        </is>
-      </c>
-      <c r="B25" s="9" t="n">
+    <row r="25" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" s="9">
         <v>11</v>
       </c>
-      <c r="C25" s="8" t="n"/>
-    </row>
-    <row r="26" ht="15" customHeight="1" s="14">
-      <c r="A26" s="13" t="inlineStr">
-        <is>
-          <t>Espeleología</t>
-        </is>
-      </c>
-      <c r="B26" s="8" t="n">
+      <c r="C25" s="8"/>
+    </row>
+    <row r="26" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="B26" s="8">
         <v>12</v>
       </c>
     </row>
-    <row r="27" ht="15" customHeight="1" s="14">
-      <c r="A27" s="11" t="inlineStr">
-        <is>
-          <t>Fútbol</t>
-        </is>
-      </c>
-      <c r="B27" s="9" t="n">
+    <row r="27" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="B27" s="9">
         <v>171</v>
       </c>
     </row>
-    <row r="28" ht="15" customHeight="1" s="14">
-      <c r="A28" s="13" t="inlineStr">
-        <is>
-          <t>Fútbol Sala</t>
-        </is>
-      </c>
-      <c r="B28" s="8" t="n">
+    <row r="28" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="B28" s="8">
         <v>55</v>
       </c>
     </row>
-    <row r="29" ht="15" customHeight="1" s="14">
-      <c r="A29" s="11" t="inlineStr">
-        <is>
-          <t>Gimnasia</t>
-        </is>
-      </c>
-      <c r="B29" s="9" t="n">
+    <row r="29" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B29" s="9">
         <v>16</v>
       </c>
     </row>
-    <row r="30" ht="15" customHeight="1" s="14">
-      <c r="A30" s="13" t="inlineStr">
-        <is>
-          <t>Golf</t>
-        </is>
-      </c>
-      <c r="B30" s="8" t="n">
+    <row r="30" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B30" s="8">
         <v>6</v>
       </c>
     </row>
-    <row r="31" ht="15" customHeight="1" s="14">
-      <c r="A31" s="11" t="inlineStr">
-        <is>
-          <t>Grappling</t>
-        </is>
-      </c>
-      <c r="B31" s="9" t="n">
+    <row r="31" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="B31" s="9">
         <v>10</v>
       </c>
     </row>
-    <row r="32" ht="15" customHeight="1" s="14">
-      <c r="A32" s="13" t="inlineStr">
-        <is>
-          <t>Lucha Grecorromana</t>
-        </is>
-      </c>
-      <c r="B32" s="8" t="n">
+    <row r="32" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="B32" s="8">
         <v>7</v>
       </c>
     </row>
-    <row r="33" ht="15" customHeight="1" s="14">
-      <c r="A33" s="11" t="inlineStr">
-        <is>
-          <t>Halterofilia</t>
-        </is>
-      </c>
-      <c r="B33" s="9" t="n">
+    <row r="33" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="B33" s="9">
         <v>7</v>
       </c>
     </row>
-    <row r="34" ht="15" customHeight="1" s="14">
-      <c r="A34" s="13" t="inlineStr">
-        <is>
-          <t>Hípica</t>
-        </is>
-      </c>
-      <c r="B34" s="8" t="n">
+    <row r="34" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B34" s="8">
         <v>12</v>
       </c>
     </row>
-    <row r="35" ht="15" customHeight="1" s="14">
-      <c r="A35" s="11" t="inlineStr">
-        <is>
-          <t>Hockey</t>
-        </is>
-      </c>
-      <c r="B35" s="9" t="n">
+    <row r="35" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="B35" s="9">
         <v>8</v>
       </c>
     </row>
-    <row r="36" ht="15" customHeight="1" s="14">
-      <c r="A36" s="13" t="inlineStr">
-        <is>
-          <t>Judo</t>
-        </is>
-      </c>
-      <c r="B36" s="8" t="n">
+    <row r="36" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B36" s="8">
         <v>45</v>
       </c>
     </row>
-    <row r="37" ht="15" customHeight="1" s="14">
-      <c r="A37" s="11" t="inlineStr">
-        <is>
-          <t>Karate</t>
-        </is>
-      </c>
-      <c r="B37" s="9" t="n">
+    <row r="37" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B37" s="9">
         <v>26</v>
       </c>
     </row>
-    <row r="38" ht="15" customHeight="1" s="14">
-      <c r="A38" s="13" t="inlineStr">
-        <is>
-          <t>Kick-Boxing</t>
-        </is>
-      </c>
-      <c r="B38" s="8" t="n">
+    <row r="38" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="B38" s="8">
         <v>12</v>
       </c>
     </row>
-    <row r="39" ht="15" customHeight="1" s="14">
-      <c r="A39" s="11" t="inlineStr">
-        <is>
-          <t>Kitesurf/Windsurf</t>
-        </is>
-      </c>
-      <c r="B39" s="9" t="n">
+    <row r="39" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="B39" s="9">
         <v>7</v>
       </c>
     </row>
-    <row r="40" ht="15" customHeight="1" s="14">
-      <c r="A40" s="13" t="inlineStr">
-        <is>
-          <t>Lucha</t>
-        </is>
-      </c>
-      <c r="B40" s="8" t="n">
+    <row r="40" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="B40" s="8">
         <v>19</v>
       </c>
     </row>
-    <row r="41" ht="15" customHeight="1" s="14">
-      <c r="A41" s="11" t="inlineStr">
-        <is>
-          <t>Lucha Libre olímpica</t>
-        </is>
-      </c>
-      <c r="B41" s="9" t="n">
+    <row r="41" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="B41" s="9">
         <v>7</v>
       </c>
     </row>
-    <row r="42" ht="15" customHeight="1" s="14">
-      <c r="A42" s="13" t="inlineStr">
-        <is>
-          <t>Montañismo y escalada</t>
-        </is>
-      </c>
-      <c r="B42" s="8" t="n">
+    <row r="42" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="B42" s="8">
         <v>45</v>
       </c>
     </row>
-    <row r="43" ht="15" customHeight="1" s="14">
-      <c r="A43" s="11" t="inlineStr">
-        <is>
-          <t>Motociclismo</t>
-        </is>
-      </c>
-      <c r="B43" s="9" t="n">
+    <row r="43" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="B43" s="9">
         <v>24</v>
       </c>
     </row>
-    <row r="44" ht="15" customHeight="1" s="14">
-      <c r="A44" s="13" t="inlineStr">
-        <is>
-          <t>Motonáutica</t>
-        </is>
-      </c>
-      <c r="B44" s="8" t="n">
+    <row r="44" spans="1:2" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="B44" s="8">
         <v>6</v>
       </c>
     </row>
-    <row r="45" ht="15" customHeight="1" s="14">
-      <c r="A45" s="11" t="inlineStr">
-        <is>
-          <t>Natación</t>
-        </is>
-      </c>
-      <c r="B45" s="9" t="n">
+    <row r="45" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="B45" s="9">
         <v>15</v>
       </c>
     </row>
-    <row r="46" ht="15" customHeight="1" s="14">
-      <c r="A46" s="13" t="inlineStr">
-        <is>
-          <t>Pádel</t>
-        </is>
-      </c>
-      <c r="B46" s="8" t="n">
+    <row r="46" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="B46" s="8">
         <v>5</v>
       </c>
     </row>
-    <row r="47" ht="15" customHeight="1" s="14">
-      <c r="A47" s="11" t="inlineStr">
-        <is>
-          <t>Patinaje</t>
-        </is>
-      </c>
-      <c r="B47" s="9" t="n">
+    <row r="47" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="B47" s="9">
         <v>26</v>
       </c>
     </row>
-    <row r="48" ht="15" customHeight="1" s="14">
-      <c r="A48" s="13" t="inlineStr">
-        <is>
-          <t>Pelota/Frontón</t>
-        </is>
-      </c>
-      <c r="B48" s="8" t="n">
+    <row r="48" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="B48" s="8">
         <v>13</v>
       </c>
     </row>
-    <row r="49" ht="15" customHeight="1" s="14">
-      <c r="A49" s="11" t="inlineStr">
-        <is>
-          <t>Pilota Valenciana</t>
-        </is>
-      </c>
-      <c r="B49" s="9" t="n">
+    <row r="49" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B49" s="9">
         <v>14</v>
       </c>
     </row>
-    <row r="50" ht="15" customHeight="1" s="14">
-      <c r="A50" s="13" t="inlineStr">
-        <is>
-          <t>Pesca Deportiva</t>
-        </is>
-      </c>
-      <c r="B50" s="8" t="n">
+    <row r="50" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="B50" s="8">
         <v>24</v>
       </c>
     </row>
-    <row r="51" ht="15" customHeight="1" s="14">
-      <c r="A51" s="11" t="inlineStr">
-        <is>
-          <t>Petanca</t>
-        </is>
-      </c>
-      <c r="B51" s="9" t="n">
+    <row r="51" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B51" s="9">
         <v>6</v>
       </c>
     </row>
-    <row r="52" ht="15" customHeight="1" s="14">
-      <c r="A52" s="13" t="inlineStr">
-        <is>
-          <t>Piragüismo</t>
-        </is>
-      </c>
-      <c r="B52" s="8" t="n">
+    <row r="52" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="B52" s="8">
         <v>9</v>
       </c>
     </row>
-    <row r="53" ht="15" customHeight="1" s="14">
-      <c r="A53" s="11" t="inlineStr">
-        <is>
-          <t>Remo</t>
-        </is>
-      </c>
-      <c r="B53" s="9" t="n">
+    <row r="53" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="B53" s="9">
         <v>4</v>
       </c>
     </row>
-    <row r="54" ht="15" customHeight="1" s="14">
-      <c r="A54" s="13" t="inlineStr">
-        <is>
-          <t>Rugby</t>
-        </is>
-      </c>
-      <c r="B54" s="8" t="n">
+    <row r="54" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="B54" s="8">
         <v>11</v>
       </c>
     </row>
-    <row r="55" ht="15" customHeight="1" s="14">
-      <c r="A55" s="11" t="inlineStr">
-        <is>
-          <t>Salvamento y Socorrismo</t>
-        </is>
-      </c>
-      <c r="B55" s="9" t="n">
+    <row r="55" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="B55" s="9">
         <v>6</v>
       </c>
     </row>
-    <row r="56" ht="15" customHeight="1" s="14">
-      <c r="A56" s="13" t="inlineStr">
-        <is>
-          <t>Sambo (Defensa personal)</t>
-        </is>
-      </c>
-      <c r="B56" s="8" t="n">
+    <row r="56" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="B56" s="8">
         <v>9</v>
       </c>
     </row>
-    <row r="57" ht="15" customHeight="1" s="14">
-      <c r="A57" s="11" t="inlineStr">
-        <is>
-          <t>Taekwondo</t>
-        </is>
-      </c>
-      <c r="B57" s="9" t="n">
+    <row r="57" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B57" s="9">
         <v>27</v>
       </c>
     </row>
-    <row r="58" ht="15" customHeight="1" s="14">
-      <c r="A58" s="13" t="inlineStr">
-        <is>
-          <t>Tenis</t>
-        </is>
-      </c>
-      <c r="B58" s="8" t="n">
+    <row r="58" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B58" s="8">
         <v>10</v>
       </c>
     </row>
-    <row r="59" ht="15" customHeight="1" s="14">
-      <c r="A59" s="11" t="inlineStr">
-        <is>
-          <t>Tenis de Mesa</t>
-        </is>
-      </c>
-      <c r="B59" s="9" t="n">
+    <row r="59" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="B59" s="9">
         <v>6</v>
       </c>
     </row>
-    <row r="60" ht="15" customHeight="1" s="14">
-      <c r="A60" s="13" t="inlineStr">
-        <is>
-          <t>Tiro con Arco</t>
-        </is>
-      </c>
-      <c r="B60" s="8" t="n">
+    <row r="60" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="B60" s="8">
         <v>2</v>
       </c>
     </row>
-    <row r="61" ht="15" customHeight="1" s="14">
-      <c r="A61" s="11" t="inlineStr">
-        <is>
-          <t>Tiro Olímpico</t>
-        </is>
-      </c>
-      <c r="B61" s="9" t="n">
+    <row r="61" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="B61" s="9">
         <v>10</v>
       </c>
     </row>
-    <row r="62" ht="15" customHeight="1" s="14">
-      <c r="A62" s="13" t="inlineStr">
-        <is>
-          <t>Triatlón</t>
-        </is>
-      </c>
-      <c r="B62" s="8" t="n">
+    <row r="62" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="B62" s="8">
         <v>35</v>
       </c>
     </row>
-    <row r="63" ht="15" customHeight="1" s="14">
-      <c r="A63" s="11" t="inlineStr">
-        <is>
-          <t>Vela</t>
-        </is>
-      </c>
-      <c r="B63" s="9" t="n">
+    <row r="63" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B63" s="9">
         <v>16</v>
       </c>
     </row>
-    <row r="64" ht="15" customHeight="1" s="14">
-      <c r="A64" s="13" t="inlineStr">
-        <is>
-          <t>Voleibol</t>
-        </is>
-      </c>
-      <c r="B64" s="8" t="n">
+    <row r="64" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B64" s="8">
         <v>18</v>
       </c>
     </row>
-    <row r="65" ht="15" customHeight="1" s="14">
-      <c r="A65" s="11" t="inlineStr">
-        <is>
-          <t>Waterpolo</t>
-        </is>
-      </c>
-      <c r="B65" s="9" t="n">
+    <row r="65" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="B65" s="9">
         <v>2</v>
       </c>
     </row>
-    <row r="66" ht="15" customHeight="1" s="14">
-      <c r="A66" s="13" t="inlineStr">
-        <is>
-          <t>Wu-Shu</t>
-        </is>
-      </c>
-      <c r="B66" s="8" t="n">
+    <row r="66" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="B66" s="8">
         <v>4</v>
       </c>
     </row>
-    <row r="67" ht="15" customHeight="1" s="14">
-      <c r="A67" s="11" t="inlineStr">
-        <is>
-          <t>Otros</t>
-        </is>
-      </c>
-      <c r="B67" s="9" t="n">
+    <row r="67" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B67" s="9">
         <v>30</v>
       </c>
     </row>
-    <row r="68" ht="12.75" customHeight="1" s="14">
-      <c r="A68" s="6" t="inlineStr">
-        <is>
-          <t>Nota: En un club puede practicarse más de una actividad deportiva.</t>
-        </is>
-      </c>
-      <c r="B68" s="10" t="n"/>
-    </row>
-    <row r="69" ht="12.75" customHeight="1" s="14">
-      <c r="A69" s="6" t="inlineStr">
-        <is>
-          <t>Fuente: Conselleria de Educación, Cultura y Deporte. Generalitat Valenciana.</t>
-        </is>
-      </c>
-      <c r="B69" s="10" t="n"/>
+    <row r="68" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B68" s="10"/>
+    </row>
+    <row r="69" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B69" s="10"/>
     </row>
   </sheetData>
-  <pageMargins left="0.3937007874015748" right="0.3937007874015748" top="0.5905511811023622" bottom="0.5905511811023622" header="0" footer="0"/>
-  <pageSetup orientation="portrait" paperSize="9" scale="75" horizontalDpi="300" verticalDpi="300"/>
+  <phoneticPr fontId="0" type="noConversion"/>
+  <pageMargins left="0.39370078740157477" right="0.39370078740157477" top="0.59055118110236215" bottom="0.59055118110236215" header="0" footer="0"/>
+  <pageSetup paperSize="9" scale="75" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
-    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9 Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9 Ajuntament de València</oddHeader>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
+    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9Ajuntament de València</oddHeader>
   </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr codeName="Hoja2">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Hoja2"/>
   <dimension ref="A1:B25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col width="22.28515625" customWidth="1" style="14" min="1" max="1"/>
-    <col width="13.42578125" customWidth="1" style="14" min="2" max="2"/>
+    <col min="1" max="1" width="22.28515625" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1" s="14">
-      <c r="A1" s="29" t="inlineStr">
-        <is>
-          <t>2. Clubs federados en la ciudad de València por distrito. 2023</t>
-        </is>
-      </c>
-      <c r="B1" s="5" t="n"/>
-    </row>
-    <row r="2" ht="12.75" customHeight="1" s="14">
-      <c r="A2" s="5" t="n"/>
-      <c r="B2" s="5" t="n"/>
-    </row>
-    <row r="3" ht="18.75" customHeight="1" s="14">
-      <c r="A3" s="20" t="n"/>
-      <c r="B3" s="27" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-    </row>
-    <row r="4" ht="15" customHeight="1" s="14">
-      <c r="A4" s="21" t="inlineStr">
-        <is>
-          <t>València</t>
-        </is>
-      </c>
-      <c r="B4" s="19" t="n">
+    <row r="1" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="29" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1" s="5"/>
+    </row>
+    <row r="2" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
+    </row>
+    <row r="3" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="20"/>
+      <c r="B3" s="27" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="19">
         <v>1124</v>
       </c>
     </row>
-    <row r="5" ht="15" customHeight="1" s="14">
-      <c r="A5" s="22" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 1.  Ciutat Vella</t>
-        </is>
-      </c>
-      <c r="B5" s="23" t="n">
+    <row r="5" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="23">
         <v>58</v>
       </c>
     </row>
-    <row r="6" ht="15" customHeight="1" s="14">
-      <c r="A6" s="13" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 2.  l'Eixample</t>
-        </is>
-      </c>
-      <c r="B6" s="24" t="n">
+    <row r="6" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="24">
         <v>67</v>
       </c>
     </row>
-    <row r="7" ht="15" customHeight="1" s="14">
-      <c r="A7" s="22" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 3.  Extramurs</t>
-        </is>
-      </c>
-      <c r="B7" s="23" t="n">
+    <row r="7" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="23">
         <v>87</v>
       </c>
     </row>
-    <row r="8" ht="15" customHeight="1" s="14">
-      <c r="A8" s="13" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 4.  Campanar</t>
-        </is>
-      </c>
-      <c r="B8" s="24" t="n">
+    <row r="8" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="24">
         <v>57</v>
       </c>
     </row>
-    <row r="9" ht="15" customHeight="1" s="14">
-      <c r="A9" s="22" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 5.  la Saïdia</t>
-        </is>
-      </c>
-      <c r="B9" s="23" t="n">
+    <row r="9" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="23">
         <v>58</v>
       </c>
     </row>
-    <row r="10" ht="15" customHeight="1" s="14">
-      <c r="A10" s="13" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 6.  el Pla del Real</t>
-        </is>
-      </c>
-      <c r="B10" s="24" t="n">
+    <row r="10" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" s="24">
         <v>50</v>
       </c>
     </row>
-    <row r="11" ht="15" customHeight="1" s="14">
-      <c r="A11" s="22" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 7.  l'Olivereta</t>
-        </is>
-      </c>
-      <c r="B11" s="23" t="n">
+    <row r="11" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" s="23">
         <v>40</v>
       </c>
     </row>
-    <row r="12" ht="15" customHeight="1" s="14">
-      <c r="A12" s="13" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 8.  Patraix</t>
-        </is>
-      </c>
-      <c r="B12" s="24" t="n">
+    <row r="12" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="24">
         <v>60</v>
       </c>
     </row>
-    <row r="13" ht="15" customHeight="1" s="14">
-      <c r="A13" s="22" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 9.  Jesús</t>
-        </is>
-      </c>
-      <c r="B13" s="23" t="n">
+    <row r="13" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" s="23">
         <v>77</v>
       </c>
     </row>
-    <row r="14" ht="15" customHeight="1" s="14">
-      <c r="A14" s="13" t="inlineStr">
-        <is>
-          <t>10.  Quatre Carreres</t>
-        </is>
-      </c>
-      <c r="B14" s="24" t="n">
+    <row r="14" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" s="24">
         <v>108</v>
       </c>
     </row>
-    <row r="15" ht="15" customHeight="1" s="14">
-      <c r="A15" s="22" t="inlineStr">
-        <is>
-          <t>11.  Poblats Marítims</t>
-        </is>
-      </c>
-      <c r="B15" s="23" t="n">
+    <row r="15" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" s="23">
         <v>94</v>
       </c>
     </row>
-    <row r="16" ht="15" customHeight="1" s="14">
-      <c r="A16" s="13" t="inlineStr">
-        <is>
-          <t>12.  Camins al Grau</t>
-        </is>
-      </c>
-      <c r="B16" s="24" t="n">
+    <row r="16" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" s="24">
         <v>74</v>
       </c>
     </row>
-    <row r="17" ht="15" customHeight="1" s="14">
-      <c r="A17" s="22" t="inlineStr">
-        <is>
-          <t>13.  Algirós</t>
-        </is>
-      </c>
-      <c r="B17" s="23" t="n">
+    <row r="17" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17" s="23">
         <v>50</v>
       </c>
     </row>
-    <row r="18" ht="15" customHeight="1" s="14">
-      <c r="A18" s="13" t="inlineStr">
-        <is>
-          <t>14.  Benimaclet</t>
-        </is>
-      </c>
-      <c r="B18" s="24" t="n">
+    <row r="18" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" s="24">
         <v>39</v>
       </c>
     </row>
-    <row r="19" ht="15" customHeight="1" s="14">
-      <c r="A19" s="22" t="inlineStr">
-        <is>
-          <t>15.  Rascanya</t>
-        </is>
-      </c>
-      <c r="B19" s="23" t="n">
+    <row r="19" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="B19" s="23">
         <v>46</v>
       </c>
     </row>
-    <row r="20" ht="15" customHeight="1" s="14">
-      <c r="A20" s="13" t="inlineStr">
-        <is>
-          <t>16.  Benicalap</t>
-        </is>
-      </c>
-      <c r="B20" s="24" t="n">
+    <row r="20" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B20" s="24">
         <v>55</v>
       </c>
     </row>
-    <row r="21" ht="15" customHeight="1" s="14">
-      <c r="A21" s="22" t="inlineStr">
-        <is>
-          <t>17.  Pobles del Nord</t>
-        </is>
-      </c>
-      <c r="B21" s="23" t="n">
+    <row r="21" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21" s="23">
         <v>9</v>
       </c>
     </row>
-    <row r="22" ht="15" customHeight="1" s="14">
-      <c r="A22" s="13" t="inlineStr">
-        <is>
-          <t>18.  Pobles de l'Oest</t>
-        </is>
-      </c>
-      <c r="B22" s="24" t="n">
+    <row r="22" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B22" s="24">
         <v>23</v>
       </c>
     </row>
-    <row r="23" ht="15" customHeight="1" s="14">
-      <c r="A23" s="22" t="inlineStr">
-        <is>
-          <t>19.  Pobles del Sud</t>
-        </is>
-      </c>
-      <c r="B23" s="23" t="n">
+    <row r="23" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="B23" s="23">
         <v>66</v>
       </c>
     </row>
-    <row r="24" ht="15" customHeight="1" s="14">
-      <c r="A24" s="13" t="inlineStr">
-        <is>
-          <t>No hi consta</t>
-        </is>
-      </c>
-      <c r="B24" s="25" t="n">
+    <row r="24" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="B24" s="25">
         <v>6</v>
       </c>
     </row>
-    <row r="25" ht="12.75" customHeight="1" s="14">
-      <c r="A25" s="6" t="inlineStr">
-        <is>
-          <t>Fuente: Conselleria de Educación, Cultura y Deporte. Generalitat Valenciana.</t>
-        </is>
-      </c>
-      <c r="B25" s="26" t="n"/>
+    <row r="25" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A25" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="B25" s="26"/>
     </row>
   </sheetData>
-  <pageMargins left="0.3937007874015748" right="0.3937007874015748" top="0.5905511811023622" bottom="0.5905511811023622" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <pageMargins left="0.39370078740157477" right="0.39370078740157477" top="0.59055118110236215" bottom="0.59055118110236215" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter>
-    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9 Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9 Ajuntament de València</oddHeader>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
+    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9Ajuntament de València</oddHeader>
   </headerFooter>
 </worksheet>
 </file>